--- a/AdHOCInvoiceApp/AdHOCInvoicingApp/ClientApp/src/assets/GRA_INVOICER_BUSINESS_PARTNERS.xlsx
+++ b/AdHOCInvoiceApp/AdHOCInvoicingApp/ClientApp/src/assets/GRA_INVOICER_BUSINESS_PARTNERS.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAMPOFO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hquaye\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAB8D37-C3E6-401E-BF0D-387572CF72BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7290" windowHeight="3045" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Accra Customers" sheetId="1" r:id="rId1"/>
-    <sheet name="Kumasi Customers" sheetId="2" r:id="rId2"/>
+    <sheet name="Partners" sheetId="2" r:id="rId1"/>
+    <sheet name="Legend" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,20 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Augustine Akoto Ampofo</t>
-  </si>
-  <si>
-    <t>Mike Kubi</t>
-  </si>
-  <si>
-    <t>William Antwi</t>
-  </si>
-  <si>
     <t>GhanaCardTIN</t>
   </si>
   <si>
@@ -57,92 +49,98 @@
     <t>GhanaPost</t>
   </si>
   <si>
+    <t>TypeOfBusinessPartner</t>
+  </si>
+  <si>
+    <t>ABC ventures</t>
+  </si>
+  <si>
     <t>GHA-01256932-63</t>
   </si>
   <si>
-    <t>GHA-01256932-64</t>
-  </si>
-  <si>
-    <t>GHA-01256932-65</t>
-  </si>
-  <si>
-    <t>alarbiampofo@gmail.com</t>
+    <t>0543542295</t>
+  </si>
+  <si>
+    <t>Kumasi</t>
+  </si>
+  <si>
+    <t>AS-XXX-XXX</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Value Example</t>
+  </si>
+  <si>
+    <t>Name of business partner</t>
+  </si>
+  <si>
+    <t>Ghana Card number or Tin number</t>
+  </si>
+  <si>
+    <t>Email of business partner</t>
+  </si>
+  <si>
+    <t>abcgh@gmail.com</t>
+  </si>
+  <si>
+    <t>Phone number of business partner</t>
+  </si>
+  <si>
+    <t>0542233295</t>
+  </si>
+  <si>
+    <t>Address of business partner</t>
+  </si>
+  <si>
+    <t>13 Akwaaba street</t>
+  </si>
+  <si>
+    <t>City  of business partner</t>
   </si>
   <si>
     <t>Accra</t>
   </si>
   <si>
-    <t>GA-XXX-XXX</t>
-  </si>
-  <si>
-    <t>Kumasi</t>
-  </si>
-  <si>
-    <t>AS-XXX-XXX</t>
-  </si>
-  <si>
-    <t>Micheal nartey</t>
-  </si>
-  <si>
-    <t>Paul Lawer</t>
-  </si>
-  <si>
-    <t>Somad Yesoufou</t>
-  </si>
-  <si>
-    <t>Prince Annie</t>
-  </si>
-  <si>
-    <t>Abigail Amissah</t>
-  </si>
-  <si>
-    <t>Tema</t>
-  </si>
-  <si>
-    <t>Osu</t>
-  </si>
-  <si>
-    <t>willantwi@gmail.com</t>
-  </si>
-  <si>
-    <t>0240986781</t>
-  </si>
-  <si>
-    <t>0542446290</t>
-  </si>
-  <si>
-    <t>0543542295</t>
-  </si>
-  <si>
-    <t>0543542296</t>
-  </si>
-  <si>
-    <t>0543542297</t>
-  </si>
-  <si>
-    <t>0543542298</t>
-  </si>
-  <si>
-    <t>0543542299</t>
-  </si>
-  <si>
-    <t>mikek@gmail.com</t>
-  </si>
-  <si>
-    <t>TypeOfBusinessPartner</t>
-  </si>
-  <si>
-    <t>Customer</t>
+    <t>Ghana Post Service number of business partner</t>
+  </si>
+  <si>
+    <t>GA-543-0125</t>
+  </si>
+  <si>
+    <t>Can be either Customer or Supplier</t>
+  </si>
+  <si>
+    <t>Required Columns</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>Supplier</t>
+  </si>
+  <si>
+    <t>abcventura@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,16 +156,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -175,15 +204,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -464,318 +590,305 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F0C7CA57-B6E3-4F94-AF8F-1D0717DECCB9}">
+          <x14:formula1>
+            <xm:f>Legend!$I$3:$I$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C49700-1653-4CBE-81D2-00FCD93987FC}">
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="I2" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="100.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A1:A16"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3:C4" r:id="rId2" display="alarbiampofo@gmail.com"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{CB213B69-BA08-4C24-BF1C-7C6986C11490}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>